--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126072a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126072a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que não procuraram a polícia em decorrência da última agressão física que foram vítimas, no período de referência de 365 dias (%)</t>
   </si>
@@ -40,16 +40,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões</t>
   </si>
   <si>
     <t>norte</t>
@@ -419,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,6 +478,24 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>8.276203175464603</v>
+      </c>
+      <c r="D5">
+        <v>4.745712427177249</v>
+      </c>
+      <c r="E5">
+        <v>5.690088868710758</v>
+      </c>
+      <c r="F5">
+        <v>3.253441976550481</v>
+      </c>
+      <c r="G5">
+        <v>3.869887687702495</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -493,19 +505,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.276203175464603</v>
+        <v>23.98712211140787</v>
       </c>
       <c r="D6">
-        <v>4.745712427177249</v>
+        <v>18.95271652625737</v>
       </c>
       <c r="E6">
-        <v>5.690088868710758</v>
+        <v>20.37480638648043</v>
       </c>
       <c r="F6">
-        <v>3.253441976550481</v>
+        <v>9.690226630280813</v>
       </c>
       <c r="G6">
-        <v>3.869887687702495</v>
+        <v>12.68293635418893</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -516,25 +528,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>23.98712211140787</v>
+        <v>16.68847049545703</v>
       </c>
       <c r="D7">
-        <v>18.95271652625737</v>
+        <v>12.49312353916668</v>
       </c>
       <c r="E7">
-        <v>20.37480638648043</v>
+        <v>10.86088529088978</v>
       </c>
       <c r="F7">
-        <v>9.690226630280813</v>
+        <v>7.597874366556964</v>
       </c>
       <c r="G7">
-        <v>12.68293635418893</v>
+        <v>9.666995003124054</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>13.33621230403909</v>
+      </c>
+      <c r="D8">
+        <v>8.472197272591622</v>
+      </c>
+      <c r="E8">
+        <v>8.565842487100417</v>
+      </c>
+      <c r="F8">
+        <v>4.596191823410531</v>
+      </c>
+      <c r="G8">
+        <v>7.63297258341706</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -544,19 +574,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>16.68847049545703</v>
+        <v>16.98695831916211</v>
       </c>
       <c r="D9">
-        <v>12.49312353916668</v>
+        <v>8.922739055027167</v>
       </c>
       <c r="E9">
-        <v>10.86088529088978</v>
+        <v>11.28826945206127</v>
       </c>
       <c r="F9">
-        <v>7.597874366556964</v>
+        <v>6.203107974636141</v>
       </c>
       <c r="G9">
-        <v>9.666995003124054</v>
+        <v>6.285470089915422</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -567,64 +597,18 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.33621230403909</v>
+        <v>15.92833406787119</v>
       </c>
       <c r="D10">
-        <v>8.472197272591622</v>
+        <v>10.85366400495687</v>
       </c>
       <c r="E10">
-        <v>8.565842487100417</v>
+        <v>15.16634043151796</v>
       </c>
       <c r="F10">
-        <v>4.596191823410531</v>
+        <v>9.632001944428021</v>
       </c>
       <c r="G10">
-        <v>7.63297258341706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>16.98695831916211</v>
-      </c>
-      <c r="D11">
-        <v>8.922739055027167</v>
-      </c>
-      <c r="E11">
-        <v>11.28826945206127</v>
-      </c>
-      <c r="F11">
-        <v>6.203107974636141</v>
-      </c>
-      <c r="G11">
-        <v>6.285470089915422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>15.92833406787119</v>
-      </c>
-      <c r="D12">
-        <v>10.85366400495687</v>
-      </c>
-      <c r="E12">
-        <v>15.16634043151796</v>
-      </c>
-      <c r="F12">
-        <v>9.632001944428021</v>
-      </c>
-      <c r="G12">
         <v>9.651245668046853</v>
       </c>
     </row>
